--- a/add-put-questionnaire/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/add-put-questionnaire/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:27:50+00:00</t>
+    <t>2025-02-19T13:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
